--- a/学习报告/信息化培训报告/新员工半周报-20180131-蒙冠州.xlsx
+++ b/学习报告/信息化培训报告/新员工半周报-20180131-蒙冠州.xlsx
@@ -376,9 +376,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -410,6 +407,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,7 +721,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,7 +770,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -791,7 +791,7 @@
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -806,7 +806,7 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
@@ -819,11 +819,11 @@
       <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -838,43 +838,43 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>43108</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>43164</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -907,7 +907,7 @@
       <c r="K5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>34</v>
       </c>
     </row>
